--- a/Project Plan/Project Plan.xlsx
+++ b/Project Plan/Project Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
   <si>
     <t>Iteration</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Work Management</t>
   </si>
   <si>
-    <t>Gantt Chart</t>
-  </si>
-  <si>
     <t>Design layout</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>Build Visualization</t>
   </si>
   <si>
-    <t>More reports for iteration 3 if time allows</t>
-  </si>
-  <si>
     <t>Iteration 1</t>
   </si>
   <si>
@@ -151,6 +145,9 @@
   </si>
   <si>
     <t>Total Work</t>
+  </si>
+  <si>
+    <t>Reports</t>
   </si>
 </sst>
 </file>
@@ -492,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -607,7 +604,7 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -773,6 +770,10 @@
       <c r="F19">
         <v>2</v>
       </c>
+      <c r="H19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
@@ -787,6 +788,12 @@
       <c r="F20">
         <v>1</v>
       </c>
+      <c r="H20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
@@ -798,8 +805,19 @@
       <c r="F21">
         <v>2</v>
       </c>
+      <c r="H21">
+        <f>SUM(E2:E21)</f>
+        <v>35</v>
+      </c>
+      <c r="I21">
+        <f>H21-SUM(F2:F21)</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>2</v>
+      </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
@@ -823,10 +841,6 @@
       <c r="F23">
         <v>3</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
@@ -841,12 +855,6 @@
       <c r="F24">
         <v>1</v>
       </c>
-      <c r="H24" t="s">
-        <v>40</v>
-      </c>
-      <c r="I24" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
@@ -858,19 +866,8 @@
       <c r="F25">
         <v>1</v>
       </c>
-      <c r="H25">
-        <f>SUM(E2:E25)</f>
-        <v>39</v>
-      </c>
-      <c r="I25">
-        <f>H25-SUM(F2:F25)</f>
-        <v>5</v>
-      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>2</v>
-      </c>
       <c r="B26" t="s">
         <v>28</v>
       </c>
@@ -995,7 +992,7 @@
         <v>3</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I35" s="1"/>
     </row>
@@ -1013,10 +1010,10 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -1030,11 +1027,11 @@
         <v>2</v>
       </c>
       <c r="H37">
-        <f>SUM(E26:E37)</f>
-        <v>21</v>
+        <f>SUM(E22:E37)</f>
+        <v>27</v>
       </c>
       <c r="I37">
-        <f>H37-SUM(F26:F37)</f>
+        <f>H37-SUM(F22:F37)</f>
         <v>0</v>
       </c>
     </row>
@@ -1043,11 +1040,11 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s">
         <v>34</v>
       </c>
-      <c r="C38" t="s">
-        <v>35</v>
-      </c>
       <c r="E38">
         <v>2</v>
       </c>
@@ -1055,13 +1052,13 @@
         <v>2</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E39">
         <v>15</v>
@@ -1070,15 +1067,15 @@
         <v>15</v>
       </c>
       <c r="H39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E40">
         <v>15</v>
@@ -1097,25 +1094,20 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E41">
         <f>SUM(E2:E40)</f>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F41">
         <f>SUM(F2:F40)</f>
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B42" t="s">
-        <v>38</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H19:I19"/>
     <mergeCell ref="H35:I35"/>
     <mergeCell ref="H38:I38"/>
   </mergeCells>
